--- a/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_3_kato_katz.xlsx
+++ b/SCH-STH/Impact assessments/Benin/2024/Oct 2024/bj_sch_sth_impact_2410_3_kato_katz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Benin\2024\Oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB86C1-BD98-430E-B3A9-23D5E4726943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9B111F-489B-4FE6-AB80-6066AC833D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -303,13 +303,13 @@
     <t>Résultats KK</t>
   </si>
   <si>
-    <t>bj_sch_sth_impact_2410_3_kato_katz_v1</t>
-  </si>
-  <si>
-    <t>(2024 Octobre) - 3. SCH/STH - Kato Katz</t>
-  </si>
-  <si>
-    <t>bj_k_2010</t>
+    <t>(2024 Octobre) - 3. SCH/STH - Kato Katz V2</t>
+  </si>
+  <si>
+    <t>bj_sch_sth_impact_2410_3_kato_katz_v2</t>
+  </si>
+  <si>
+    <t>bj_k_24102</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1689,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
